--- a/data/source/Output.xlsx
+++ b/data/source/Output.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +25,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +50,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -62,7 +75,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -427,7 +440,7 @@
   </sheetPr>
   <dimension ref="A1:AO224"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -733,11 +746,11 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>V2505</t>
+          <t>TA2509</t>
         </is>
       </c>
       <c r="Z2" t="n">
-        <v>5126</v>
+        <v>4794</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
@@ -799,19 +812,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PF2505</t>
+          <t>PS2509</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SR2509</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PX2505</t>
+          <t>JM2509</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6568</v>
+        <v>49105</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5823</v>
       </c>
       <c r="F3" t="n">
-        <v>6876</v>
+        <v>1049</v>
       </c>
       <c r="I3" t="n">
         <v>301063</v>
@@ -835,41 +856,41 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>PF2505</t>
+          <t>IF2506</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>支撑位</t>
+          <t>30K压力位</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>短期中幅连续下跌+短期中位小幅震荡</t>
+          <t>短期小幅急速上涨+短期高位小幅震荡</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>长期低位小幅震荡</t>
+          <t>长期中位小幅震荡+短期中幅连续下跌+短期小幅连续上涨</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>长下影</t>
+          <t>长上影</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>支撑位假跌破：S@3 = 0.464, S@5 = 0.459; 支撑位真跌破: S@3 = 0.398, S@5 = 0.382</t>
+          <t>支撑位假跌破：S@3 = 0.531, S@5 = 0.512; 支撑位真跌破: S@3 = 0.418, S@5 = 0.406</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>AP2505</t>
+          <t>RM2509</t>
         </is>
       </c>
       <c r="Z3" t="n">
-        <v>7274</v>
+        <v>2736</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -931,57 +952,65 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PR2505</t>
+          <t>L2509</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EG2509</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>JD2505</t>
+          <t>J2509</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6078</v>
+        <v>7368</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4447</v>
       </c>
       <c r="F4" t="n">
-        <v>3018</v>
+        <v>1698</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>PR2505</t>
+          <t>IM2506</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>10K支撑位</t>
+          <t>30K压力位</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>短期中位小幅震荡</t>
+          <t>短期大幅连续上涨+短期中位中幅震荡</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>长期中位小幅震荡+短期小幅连续下跌</t>
+          <t>长期中位中幅震荡+短期中幅连续下跌+短期小幅连续上涨</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>上跳跌回+十字星+连续刺不破+上跳+长下影</t>
+          <t>下跳涨回+上跳</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>趋势假跌破：S@3 = 0.449, S@5 = 0.422</t>
+          <t>支撑位假跌破：S@3 = 0.402, S@5 = 0.388; 支撑位真跌破: S@3 = 0.320, S@5 = 0.295</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>HC2505</t>
+          <t>PX2509</t>
         </is>
       </c>
       <c r="Z4" t="n">
-        <v>3380</v>
+        <v>6886</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
@@ -1043,60 +1072,68 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NI2505</t>
+          <t>PP2509</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>A2509</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C2505</t>
+          <t>A2509</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>129140</v>
+        <v>7168</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4232</v>
       </c>
       <c r="F5" t="n">
-        <v>2273</v>
+        <v>4232</v>
       </c>
       <c r="N5" t="n">
         <v>18.76</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>NI2505</t>
+          <t>EC2506</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>20K支撑位</t>
+          <t>5K压力位</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>短期中幅连续上涨+中期大幅震荡下跌+短期小幅连续上涨</t>
+          <t>中期中位大幅震荡</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>长期低位小幅震荡且顶部下移+短期小幅连续上涨</t>
+          <t>短期大幅急速上涨+短期高位大幅震荡+短期大幅急速下跌</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>上跳跌回+上跳+下跳</t>
+          <t>下跳+上跳+长阳突破</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>趋势假跌破：S@3 = 0.421, S@5 = 0.392</t>
+          <t>趋势假跌破：S@3 = 0.330, S@5 = 0.318</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>AU2506</t>
+          <t>BU2509</t>
         </is>
       </c>
       <c r="Z5" t="n">
-        <v>705.8</v>
+        <v>3609</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -1158,60 +1195,60 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AP2505</t>
+          <t>CJ2601</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A2505</t>
+          <t>B2509</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7274</v>
+        <v>10490</v>
       </c>
       <c r="F6" t="n">
-        <v>3879</v>
+        <v>3723</v>
       </c>
       <c r="M6" t="n">
         <v>15.32</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>AP2505</t>
+          <t>SR2509</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>30K支撑位</t>
+          <t>支撑位</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>中期大幅震荡下跌+短期大幅急速上涨+中期中位中幅震荡</t>
+          <t>中期大幅连续下跌+短期中位小幅震荡</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>中期大幅连续下跌+中期中幅震荡上涨</t>
+          <t>长期小幅震荡上涨+压力位突破回踩+短期高位小幅震荡</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>上跳跌回</t>
+          <t>下跳涨回+长下影+下跳破</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>趋势假跌破：S@3 = 0.383, S@5 = 0.363</t>
+          <t>支撑位假跌破：S@3 = 0.472, S@5 = 0.468; 支撑位真跌破: S@3 = 0.369, S@5 = 0.342</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>PR2505</t>
+          <t>PB2508</t>
         </is>
       </c>
       <c r="Z6" t="n">
-        <v>6078</v>
+        <v>16900</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -1273,60 +1310,55 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SS2505</t>
+          <t>Y2509</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CU2505</t>
+          <t>LG2509</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13365</v>
+        <v>8076</v>
       </c>
       <c r="F7" t="n">
-        <v>81560</v>
+        <v>838</v>
       </c>
       <c r="N7" t="n">
         <v>20.11</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>SS2505</t>
+          <t>LH2509</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>30K支撑位</t>
+          <t>手画支撑位</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>中期中幅震荡下跌+短期中幅连续上涨</t>
+          <t>长期低位中幅震荡+短期中幅震荡上涨+短期大幅连续下跌</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>中期中幅连续下跌+中期中幅震荡上涨</t>
+          <t>中期中幅连续下跌+长期低位小幅震荡</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>上跳跌回+长阴跌破+下跳</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>趋势假跌破：S@3 = 0.359, S@5 = 0.345</t>
+          <t>长阴跌破+连续下跳+十字星</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>BU2506</t>
+          <t>WH2303</t>
         </is>
       </c>
       <c r="Z7" t="n">
-        <v>3633</v>
+        <v>3050</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
@@ -1388,23 +1420,23 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>M2505</t>
+          <t>SH2509</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FG2505</t>
+          <t>HC2510</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2853</v>
+        <v>2658</v>
       </c>
       <c r="F8" t="n">
-        <v>1236</v>
+        <v>3477</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>M2505</t>
+          <t>JM2509</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1414,31 +1446,26 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>长期大幅震荡下跌+短期小幅连续上涨</t>
+          <t>长期大幅震荡下跌</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>中期大幅连续下跌+中期大幅连续上涨+短期高位小幅震荡</t>
+          <t>长期大幅震荡下跌</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>下跳+长阴跌破+下跳涨回</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>支撑位假跌破：S@3 = 0.440, S@5 = 0.421; 支撑位真跌破: S@3 = 0.468, S@5 = 0.457</t>
+          <t>长下影</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>BR2505</t>
+          <t>L2509</t>
         </is>
       </c>
       <c r="Z8" t="n">
-        <v>13575</v>
+        <v>7368</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -1500,23 +1527,23 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>B2505</t>
+          <t>SP2509</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PK2505</t>
+          <t>PX2509</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3462</v>
+        <v>5368</v>
       </c>
       <c r="F9" t="n">
-        <v>8138</v>
+        <v>6886</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>B2505</t>
+          <t>V2509</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1526,31 +1553,26 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>长期大幅震荡下跌+短期小幅连续上涨</t>
+          <t>中期大幅震荡下跌</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>中期大幅连续下跌+中期大幅连续上涨+短期高位小幅震荡</t>
+          <t>长期中幅震荡下跌</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>上跳跌回+长阴包前</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>支撑位假跌破：S@3 = 0.414, S@5 = 0.404; 支撑位真跌破: S@3 = 0.432, S@5 = 0.424</t>
+          <t>下跳+长下影</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>MA2505</t>
+          <t>Y2509</t>
         </is>
       </c>
       <c r="Z9" t="n">
-        <v>2552</v>
+        <v>8076</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
@@ -1610,59 +1632,46 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LH2505</t>
-        </is>
-      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SC2505</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>13470</v>
+          <t>OI2509</t>
+        </is>
       </c>
       <c r="F10" t="n">
-        <v>539</v>
+        <v>9477</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>LH2505</t>
+          <t>NI2506</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>压力位</t>
+          <t>支撑位</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>长期低位中幅震荡+短期中幅震荡上涨+短期大幅连续下跌</t>
+          <t>长期低位中幅震荡且顶部下移</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>长期中幅连续下跌+中期低位小幅震荡+短期小幅连续上涨</t>
+          <t>短期大幅连续下跌+短期小幅连续上涨</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>长阴跌破+上跳</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>压力位假突破：S@3 = 0.533, S@5 = 0.495; 压力位真突破: S@3 = 0.424, S@5 = 0.413</t>
+          <t>上跳跌回+下跳+长下影</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>SR2505</t>
+          <t>SC2509</t>
         </is>
       </c>
       <c r="Z10" t="n">
-        <v>6048</v>
+        <v>504</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
@@ -1722,59 +1731,46 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>SF2505</t>
-        </is>
-      </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>IF2504</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>6030</v>
+          <t>ZN2509</t>
+        </is>
       </c>
       <c r="F11" t="n">
-        <v>3919.6</v>
+        <v>22945</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>SF2505</t>
+          <t>AP2510</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>支撑位</t>
+          <t>压力位</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>中期大幅震荡下跌</t>
+          <t>中期大幅震荡下跌+短期大幅急速上涨+中期中位中幅震荡</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>长期中幅震荡下跌</t>
+          <t>短期中幅连续下跌+短期中幅连续上涨+短期高位小幅震荡</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>上跳跌回+长阴包前+上跳+长上影</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>支撑位假跌破：S@3 = 0.531, S@5 = 0.512; 支撑位真跌破: S@3 = 0.418, S@5 = 0.406</t>
+          <t>上跳+长下影</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>PK2505</t>
+          <t>A2509</t>
         </is>
       </c>
       <c r="Z11" t="n">
-        <v>8138</v>
+        <v>4232</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
@@ -1834,25 +1830,17 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>EC2506</t>
-        </is>
-      </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TL2506</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>2191</v>
+          <t>CJ2601</t>
+        </is>
       </c>
       <c r="F12" t="n">
-        <v>116.07</v>
+        <v>10490</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>EC2506</t>
+          <t>SM2509</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1862,31 +1850,26 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>中期中位大幅震荡</t>
+          <t>短期大幅急速上涨+短期大幅急速下跌+中期低位中幅震荡</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>短期大幅急速上涨+短期高位大幅震荡</t>
+          <t>长期大幅连续下跌</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>十字星+连续上跳跌回</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>支撑位假跌破：S@3 = 0.394, S@5 = 0.381; 支撑位真跌破: S@3 = 0.394, S@5 = 0.383</t>
+          <t>上跳跌回+下跳涨回+长下影</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>RM2505</t>
+          <t>BC2508</t>
         </is>
       </c>
       <c r="Z12" t="n">
-        <v>2603</v>
+        <v>70800</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -1946,59 +1929,46 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>OI2505</t>
-        </is>
-      </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SN2505</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>9101</v>
+          <t>V2509</t>
+        </is>
       </c>
       <c r="F13" t="n">
-        <v>274330</v>
+        <v>5260</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>OI2505</t>
+          <t>IC2506</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>压力位</t>
+          <t>20K压力位</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>中期中幅震荡上涨</t>
+          <t>短期大幅连续上涨+短期中位中幅震荡</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>短期大幅连续下跌+长期低位小幅震荡</t>
+          <t>长期中位小幅震荡+短期中幅连续下跌+短期小幅连续上涨</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>下跳+下跳涨回</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>压力位假突破：S@3 = 0.418, S@5 = 0.414; 压力位真突破: S@3 = 0.414, S@5 = 0.397</t>
+          <t>下跳涨回+长上影</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>P2505</t>
+          <t>BR2509</t>
         </is>
       </c>
       <c r="Z13" t="n">
-        <v>8838</v>
+        <v>12100</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
@@ -2058,59 +2028,46 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>PG2505</t>
-        </is>
-      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AO2505</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>4581</v>
+          <t>NI2509</t>
+        </is>
       </c>
       <c r="F14" t="n">
-        <v>3066</v>
+        <v>123720</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>PG2505</t>
+          <t>RM2509</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>10K支撑位</t>
+          <t>支撑位</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>长期中位中幅震荡且顶部下移</t>
+          <t>长期大幅震荡下跌+短期中幅震荡上涨</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>短期小幅震荡下跌+短期小幅连续上涨</t>
+          <t>长期大幅震荡上涨+中期高位中幅震荡</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>长阳突破+下跳涨回+上跳+十字星</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>趋势假跌破：S@3 = 0.406, S@5 = 0.403</t>
+          <t>连续下跳+长阴跌破</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>SN2505</t>
+          <t>RI2201</t>
         </is>
       </c>
       <c r="Z14" t="n">
-        <v>274330</v>
+        <v>2801</v>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
@@ -2170,59 +2127,46 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A2505</t>
-        </is>
-      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SH2505</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>3879</v>
+          <t>C2509</t>
+        </is>
       </c>
       <c r="F15" t="n">
-        <v>2550</v>
+        <v>2322</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>A2505</t>
+          <t>EB2506</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>5K压力位</t>
+          <t>支撑位</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>长期大幅震荡下跌+短期小幅连续上涨+短期小幅连续下跌</t>
+          <t>中期大幅震荡上涨+中期大幅震荡下跌</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>长期中幅震荡上张+短期中幅急速下跌</t>
+          <t>中期高位小幅震荡+中期大幅连续下跌</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>十字星+下跳</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>趋势假突破：S@3 = 0.438, S@5 = 0.418; 趋势真突破: S@3 = 0.393, S@5 = 0.377</t>
+          <t>下跳涨回+下跳</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>OI2505</t>
+          <t>JM2509</t>
         </is>
       </c>
       <c r="Z15" t="n">
-        <v>9101</v>
+        <v>1049</v>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
@@ -2282,21 +2226,38 @@
       </c>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>FU2505</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3198</v>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>PX2509</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>20K压力位</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>短期中位小幅震荡+短期中幅震荡下跌</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>长期高位中幅震荡+中期大幅震荡下跌+短期中幅连续上涨</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>下跳+下跳涨回</t>
+        </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>L2505</t>
+          <t>PK2510</t>
         </is>
       </c>
       <c r="Z16" t="n">
-        <v>7709</v>
+        <v>8140</v>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
@@ -2356,21 +2317,38 @@
       </c>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>LU2506</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3650</v>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>M2509</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>支撑位</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>长期大幅震荡下跌+中期低位小幅震荡</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>长期大幅震荡上涨+长期高位小幅震荡</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>下跳+长阴跌破</t>
+        </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>AO2505</t>
+          <t>AD2511</t>
         </is>
       </c>
       <c r="Z17" t="n">
-        <v>3066</v>
+        <v>20280</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
@@ -2430,21 +2408,13 @@
       </c>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>EB2505</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7815</v>
-      </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>SM2505</t>
+          <t>PF2509</t>
         </is>
       </c>
       <c r="Z18" t="n">
-        <v>6126</v>
+        <v>6470</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
@@ -2504,21 +2474,13 @@
       </c>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>BU2506</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3633</v>
-      </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>WR2505</t>
+          <t>BB2511</t>
         </is>
       </c>
       <c r="Z19" t="n">
-        <v>3444</v>
+        <v>154</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
@@ -2578,21 +2540,13 @@
       </c>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>V2505</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>5126</v>
-      </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>JM2505</t>
+          <t>LG2509</t>
         </is>
       </c>
       <c r="Z20" t="n">
-        <v>1025</v>
+        <v>838</v>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
@@ -2652,21 +2606,13 @@
       </c>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>IH2506</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>2685</v>
-      </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>CY2505</t>
+          <t>AL2509</t>
         </is>
       </c>
       <c r="Z21" t="n">
-        <v>19690</v>
+        <v>20900</v>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
@@ -2726,21 +2672,13 @@
       </c>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>SA2505</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1431</v>
-      </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>M2505</t>
+          <t>CS2509</t>
         </is>
       </c>
       <c r="Z22" t="n">
-        <v>2853</v>
+        <v>2668</v>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
@@ -2800,21 +2738,13 @@
       </c>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>CJ2505</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>9095</v>
-      </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>AL2505</t>
+          <t>V2509</t>
         </is>
       </c>
       <c r="Z23" t="n">
-        <v>20680</v>
+        <v>5260</v>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
@@ -2874,21 +2804,13 @@
       </c>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>SR2505</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>6048</v>
-      </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>J2505</t>
+          <t>PL2601</t>
         </is>
       </c>
       <c r="Z24" t="n">
-        <v>1590</v>
+        <v>6613</v>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
@@ -2950,11 +2872,11 @@
     <row r="25">
       <c r="Y25" t="inlineStr">
         <is>
-          <t>RR2505</t>
+          <t>SP2509</t>
         </is>
       </c>
       <c r="Z25" t="n">
-        <v>3530</v>
+        <v>5368</v>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
@@ -3016,11 +2938,11 @@
     <row r="26">
       <c r="Y26" t="inlineStr">
         <is>
-          <t>TA2505</t>
+          <t>JR2301</t>
         </is>
       </c>
       <c r="Z26" t="n">
-        <v>4870</v>
+        <v>2758</v>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
@@ -3082,11 +3004,11 @@
     <row r="27">
       <c r="Y27" t="inlineStr">
         <is>
-          <t>AG2506</t>
+          <t>CF2509</t>
         </is>
       </c>
       <c r="Z27" t="n">
-        <v>8235</v>
+        <v>14225</v>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
@@ -3103,11 +3025,11 @@
     <row r="28">
       <c r="Y28" t="inlineStr">
         <is>
-          <t>RI2201</t>
+          <t>FB2510</t>
         </is>
       </c>
       <c r="Z28" t="n">
-        <v>2801</v>
+        <v>1313</v>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
@@ -3124,11 +3046,11 @@
     <row r="29">
       <c r="Y29" t="inlineStr">
         <is>
-          <t>PP2505</t>
+          <t>MA2509</t>
         </is>
       </c>
       <c r="Z29" t="n">
-        <v>7320</v>
+        <v>2457</v>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
@@ -3145,31 +3067,31 @@
     <row r="30">
       <c r="Y30" t="inlineStr">
         <is>
-          <t>LC2505</t>
+          <t>SN2509</t>
         </is>
       </c>
       <c r="Z30" t="n">
-        <v>73700</v>
+        <v>268800</v>
       </c>
     </row>
     <row r="31">
       <c r="Y31" t="inlineStr">
         <is>
-          <t>NR2505</t>
+          <t>RS2509</t>
         </is>
       </c>
       <c r="Z31" t="n">
-        <v>14820</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="32">
       <c r="Y32" t="inlineStr">
         <is>
-          <t>I2505</t>
+          <t>SM2509</t>
         </is>
       </c>
       <c r="Z32" t="n">
-        <v>779</v>
+        <v>6012</v>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
@@ -3220,11 +3142,11 @@
     <row r="33">
       <c r="Y33" t="inlineStr">
         <is>
-          <t>SH2505</t>
+          <t>JD2509</t>
         </is>
       </c>
       <c r="Z33" t="n">
-        <v>2550</v>
+        <v>3621</v>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
@@ -3250,11 +3172,11 @@
     <row r="34">
       <c r="Y34" t="inlineStr">
         <is>
-          <t>SA2505</t>
+          <t>FU2509</t>
         </is>
       </c>
       <c r="Z34" t="n">
-        <v>1431</v>
+        <v>2924</v>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
@@ -3280,11 +3202,11 @@
     <row r="35">
       <c r="Y35" t="inlineStr">
         <is>
-          <t>WH2303</t>
+          <t>CU2509</t>
         </is>
       </c>
       <c r="Z35" t="n">
-        <v>3050</v>
+        <v>79740</v>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
@@ -3307,11 +3229,11 @@
     <row r="36">
       <c r="Y36" t="inlineStr">
         <is>
-          <t>ZN2505</t>
+          <t>NR2509</t>
         </is>
       </c>
       <c r="Z36" t="n">
-        <v>24125</v>
+        <v>12855</v>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
@@ -3337,11 +3259,11 @@
     <row r="37">
       <c r="Y37" t="inlineStr">
         <is>
-          <t>C2505</t>
+          <t>CY2509</t>
         </is>
       </c>
       <c r="Z37" t="n">
-        <v>2273</v>
+        <v>20430</v>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
@@ -3355,11 +3277,11 @@
     <row r="38">
       <c r="Y38" t="inlineStr">
         <is>
-          <t>CS2505</t>
+          <t>EC2510</t>
         </is>
       </c>
       <c r="Z38" t="n">
-        <v>2656</v>
+        <v>1548</v>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
@@ -3382,11 +3304,11 @@
     <row r="39">
       <c r="Y39" t="inlineStr">
         <is>
-          <t>JD2505</t>
+          <t>ZN2509</t>
         </is>
       </c>
       <c r="Z39" t="n">
-        <v>3018</v>
+        <v>22945</v>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
@@ -3412,11 +3334,11 @@
     <row r="40">
       <c r="Y40" t="inlineStr">
         <is>
-          <t>LU2506</t>
+          <t>AU2510</t>
         </is>
       </c>
       <c r="Z40" t="n">
-        <v>3650</v>
+        <v>784.8</v>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
@@ -3448,11 +3370,11 @@
     <row r="41">
       <c r="Y41" t="inlineStr">
         <is>
-          <t>PS2506</t>
+          <t>PG2509</t>
         </is>
       </c>
       <c r="Z41" t="n">
-        <v>43775</v>
+        <v>3969</v>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
@@ -3466,11 +3388,11 @@
     <row r="42">
       <c r="Y42" t="inlineStr">
         <is>
-          <t>CJ2505</t>
+          <t>BZ2603</t>
         </is>
       </c>
       <c r="Z42" t="n">
-        <v>9095</v>
+        <v>6278</v>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
@@ -3505,11 +3427,11 @@
     <row r="43">
       <c r="Y43" t="inlineStr">
         <is>
-          <t>EC2506</t>
+          <t>M2509</t>
         </is>
       </c>
       <c r="Z43" t="n">
-        <v>2191</v>
+        <v>3086</v>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
@@ -3526,11 +3448,11 @@
     <row r="44">
       <c r="Y44" t="inlineStr">
         <is>
-          <t>UR2505</t>
+          <t>AP2510</t>
         </is>
       </c>
       <c r="Z44" t="n">
-        <v>1860</v>
+        <v>7929</v>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
@@ -3556,11 +3478,11 @@
     <row r="45">
       <c r="Y45" t="inlineStr">
         <is>
-          <t>CF2505</t>
+          <t>RB2510</t>
         </is>
       </c>
       <c r="Z45" t="n">
-        <v>13595</v>
+        <v>3307</v>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
@@ -3577,11 +3499,11 @@
     <row r="46">
       <c r="Y46" t="inlineStr">
         <is>
-          <t>LG2507</t>
+          <t>HC2510</t>
         </is>
       </c>
       <c r="Z46" t="n">
-        <v>843</v>
+        <v>3477</v>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
@@ -3595,11 +3517,11 @@
     <row r="47">
       <c r="Y47" t="inlineStr">
         <is>
-          <t>FU2505</t>
+          <t>NI2509</t>
         </is>
       </c>
       <c r="Z47" t="n">
-        <v>3198</v>
+        <v>123720</v>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
@@ -3613,11 +3535,11 @@
     <row r="48">
       <c r="Y48" t="inlineStr">
         <is>
-          <t>PF2505</t>
+          <t>LH2509</t>
         </is>
       </c>
       <c r="Z48" t="n">
-        <v>6568</v>
+        <v>14380</v>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
@@ -3637,11 +3559,11 @@
     <row r="49">
       <c r="Y49" t="inlineStr">
         <is>
-          <t>EB2505</t>
+          <t>WR2601</t>
         </is>
       </c>
       <c r="Z49" t="n">
-        <v>7815</v>
+        <v>3625</v>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
@@ -3676,11 +3598,11 @@
     <row r="50">
       <c r="Y50" t="inlineStr">
         <is>
-          <t>Y2505</t>
+          <t>SA2509</t>
         </is>
       </c>
       <c r="Z50" t="n">
-        <v>7880</v>
+        <v>1375</v>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
@@ -3697,11 +3619,11 @@
     <row r="51">
       <c r="Y51" t="inlineStr">
         <is>
-          <t>RU2505</t>
+          <t>RR2509</t>
         </is>
       </c>
       <c r="Z51" t="n">
-        <v>17165</v>
+        <v>3607</v>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
@@ -3715,11 +3637,11 @@
     <row r="52">
       <c r="Y52" t="inlineStr">
         <is>
-          <t>SC2505</t>
+          <t>SS2509</t>
         </is>
       </c>
       <c r="Z52" t="n">
-        <v>539</v>
+        <v>12930</v>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
@@ -3745,11 +3667,11 @@
     <row r="53">
       <c r="Y53" t="inlineStr">
         <is>
-          <t>EG2505</t>
+          <t>PP2509</t>
         </is>
       </c>
       <c r="Z53" t="n">
-        <v>4466</v>
+        <v>7168</v>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
@@ -3781,11 +3703,11 @@
     <row r="54">
       <c r="Y54" t="inlineStr">
         <is>
-          <t>PX2505</t>
+          <t>I2509</t>
         </is>
       </c>
       <c r="Z54" t="n">
-        <v>6876</v>
+        <v>823</v>
       </c>
       <c r="AB54" t="inlineStr">
         <is>
@@ -3808,11 +3730,11 @@
     <row r="55">
       <c r="Y55" t="inlineStr">
         <is>
-          <t>RS2507</t>
+          <t>C2509</t>
         </is>
       </c>
       <c r="Z55" t="n">
-        <v>5767</v>
+        <v>2322</v>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
@@ -3835,11 +3757,11 @@
     <row r="56">
       <c r="Y56" t="inlineStr">
         <is>
-          <t>RB2505</t>
+          <t>SR2509</t>
         </is>
       </c>
       <c r="Z56" t="n">
-        <v>3214</v>
+        <v>5823</v>
       </c>
       <c r="AB56" t="inlineStr">
         <is>
@@ -3862,11 +3784,11 @@
     <row r="57">
       <c r="Y57" t="inlineStr">
         <is>
-          <t>B2505</t>
+          <t>FG2509</t>
         </is>
       </c>
       <c r="Z57" t="n">
-        <v>3462</v>
+        <v>1249</v>
       </c>
       <c r="AB57" t="inlineStr">
         <is>
@@ -3889,61 +3811,61 @@
     <row r="58">
       <c r="Y58" t="inlineStr">
         <is>
-          <t>NI2505</t>
+          <t>OI2509</t>
         </is>
       </c>
       <c r="Z58" t="n">
-        <v>129140</v>
+        <v>9477</v>
       </c>
     </row>
     <row r="59">
       <c r="Y59" t="inlineStr">
         <is>
-          <t>SP2505</t>
+          <t>J2509</t>
         </is>
       </c>
       <c r="Z59" t="n">
-        <v>5754</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="60">
       <c r="Y60" t="inlineStr">
         <is>
-          <t>PG2505</t>
+          <t>EB2509</t>
         </is>
       </c>
       <c r="Z60" t="n">
-        <v>4581</v>
+        <v>7481</v>
       </c>
     </row>
     <row r="61">
       <c r="Y61" t="inlineStr">
         <is>
-          <t>SS2505</t>
+          <t>UR2509</t>
         </is>
       </c>
       <c r="Z61" t="n">
-        <v>13365</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="62">
       <c r="Y62" t="inlineStr">
         <is>
-          <t>LH2505</t>
+          <t>AO2509</t>
         </is>
       </c>
       <c r="Z62" t="n">
-        <v>13470</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="63">
       <c r="Y63" t="inlineStr">
         <is>
-          <t>BC2505</t>
+          <t>B2509</t>
         </is>
       </c>
       <c r="Z63" t="n">
-        <v>72700</v>
+        <v>3723</v>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
@@ -3994,11 +3916,11 @@
     <row r="64">
       <c r="Y64" t="inlineStr">
         <is>
-          <t>SI2505</t>
+          <t>LU2510</t>
         </is>
       </c>
       <c r="Z64" t="n">
-        <v>9925</v>
+        <v>3581</v>
       </c>
       <c r="AB64" t="inlineStr">
         <is>
@@ -4024,11 +3946,11 @@
     <row r="65">
       <c r="Y65" t="inlineStr">
         <is>
-          <t>PB2505</t>
+          <t>PR2509</t>
         </is>
       </c>
       <c r="Z65" t="n">
-        <v>17500</v>
+        <v>5996</v>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
@@ -4054,11 +3976,11 @@
     <row r="66">
       <c r="Y66" t="inlineStr">
         <is>
-          <t>FG2505</t>
+          <t>RU2509</t>
         </is>
       </c>
       <c r="Z66" t="n">
-        <v>1236</v>
+        <v>15060</v>
       </c>
       <c r="AB66" t="inlineStr">
         <is>
@@ -4081,11 +4003,11 @@
     <row r="67">
       <c r="Y67" t="inlineStr">
         <is>
-          <t>A2505</t>
+          <t>SF2509</t>
         </is>
       </c>
       <c r="Z67" t="n">
-        <v>3879</v>
+        <v>5874</v>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
@@ -4111,11 +4033,11 @@
     <row r="68">
       <c r="Y68" t="inlineStr">
         <is>
-          <t>FB2505</t>
+          <t>SH2509</t>
         </is>
       </c>
       <c r="Z68" t="n">
-        <v>1320</v>
+        <v>2658</v>
       </c>
       <c r="AB68" t="inlineStr">
         <is>
@@ -4129,11 +4051,11 @@
     <row r="69">
       <c r="Y69" t="inlineStr">
         <is>
-          <t>SF2505</t>
+          <t>P2509</t>
         </is>
       </c>
       <c r="Z69" t="n">
-        <v>6030</v>
+        <v>8926</v>
       </c>
       <c r="AB69" t="inlineStr">
         <is>
@@ -4156,11 +4078,11 @@
     <row r="70">
       <c r="Y70" t="inlineStr">
         <is>
-          <t>CU2505</t>
+          <t>CJ2601</t>
         </is>
       </c>
       <c r="Z70" t="n">
-        <v>81560</v>
+        <v>10490</v>
       </c>
       <c r="AB70" t="inlineStr">
         <is>
@@ -4186,11 +4108,11 @@
     <row r="71">
       <c r="Y71" t="inlineStr">
         <is>
-          <t>JR2301</t>
+          <t>AG2510</t>
         </is>
       </c>
       <c r="Z71" t="n">
-        <v>2758</v>
+        <v>9393</v>
       </c>
       <c r="AB71" t="inlineStr">
         <is>
@@ -4220,6 +4142,14 @@
       </c>
     </row>
     <row r="72">
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>EG2509</t>
+        </is>
+      </c>
+      <c r="Z72" t="n">
+        <v>4447</v>
+      </c>
       <c r="AB72" t="inlineStr">
         <is>
           <t>双底</t>
@@ -4524,11 +4454,6 @@
         <v>1655.05</v>
       </c>
     </row>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
     <row r="94">
       <c r="AB94" t="inlineStr">
         <is>
@@ -5003,11 +4928,6 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
     <row r="125">
       <c r="AB125" t="inlineStr">
         <is>
@@ -5524,11 +5444,6 @@
         <v>35</v>
       </c>
     </row>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
     <row r="156">
       <c r="AB156" t="inlineStr">
         <is>
@@ -6003,11 +5918,6 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
     <row r="187">
       <c r="AB187" t="inlineStr">
         <is>
@@ -7091,6 +7001,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>